--- a/data/cc_inventory_sectors.xlsx
+++ b/data/cc_inventory_sectors.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="sectors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -1185,21 +1185,6 @@
     <t>sector_tidy</t>
   </si>
   <si>
-    <t>Energy: Power</t>
-  </si>
-  <si>
-    <t>Energy: Industry</t>
-  </si>
-  <si>
-    <t>Energy: Transport</t>
-  </si>
-  <si>
-    <t>Energy: Fuel production</t>
-  </si>
-  <si>
-    <t>Energy: Buildings &amp; other</t>
-  </si>
-  <si>
     <t>Industrial processes</t>
   </si>
   <si>
@@ -1210,6 +1195,21 @@
   </si>
   <si>
     <t>6.</t>
+  </si>
+  <si>
+    <t>Energy | Power</t>
+  </si>
+  <si>
+    <t>Energy | Industry</t>
+  </si>
+  <si>
+    <t>Energy | Transport</t>
+  </si>
+  <si>
+    <t>Energy | Buildings &amp; other</t>
+  </si>
+  <si>
+    <t>Energy | Fuel production</t>
   </si>
 </sst>
 </file>
@@ -1553,26 +1553,26 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J134" sqref="J134"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="62.7265625" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
-    <col min="6" max="6" width="46.7265625" customWidth="1"/>
-    <col min="7" max="7" width="62.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="54.7265625" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1705,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1737,10 +1737,10 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1769,10 +1769,10 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1798,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1830,10 +1830,10 @@
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1862,10 +1862,10 @@
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1894,10 +1894,10 @@
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1926,10 +1926,10 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1958,10 +1958,10 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1990,10 +1990,10 @@
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2022,10 +2022,10 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2083,10 +2083,10 @@
         <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2115,10 +2115,10 @@
         <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2147,10 +2147,10 @@
         <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2179,10 +2179,10 @@
         <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2211,10 +2211,10 @@
         <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2240,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2272,10 +2272,10 @@
         <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2304,10 +2304,10 @@
         <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2336,10 +2336,10 @@
         <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2368,10 +2368,10 @@
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -2455,10 +2455,10 @@
         <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2487,10 +2487,10 @@
         <v>94</v>
       </c>
       <c r="J30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2519,10 +2519,10 @@
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2580,10 +2580,10 @@
         <v>102</v>
       </c>
       <c r="J33" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2612,10 +2612,10 @@
         <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -2644,10 +2644,10 @@
         <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2676,10 +2676,10 @@
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -2702,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -2734,10 +2734,10 @@
         <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -2766,10 +2766,10 @@
         <v>119</v>
       </c>
       <c r="J39" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -2798,10 +2798,10 @@
         <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -3125,10 +3125,10 @@
         <v>157</v>
       </c>
       <c r="J52" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -3157,10 +3157,10 @@
         <v>160</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -3189,10 +3189,10 @@
         <v>163</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -3221,10 +3221,10 @@
         <v>166</v>
       </c>
       <c r="J55" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -3279,10 +3279,10 @@
         <v>172</v>
       </c>
       <c r="J57" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -3311,10 +3311,10 @@
         <v>50</v>
       </c>
       <c r="J58" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -3343,10 +3343,10 @@
         <v>177</v>
       </c>
       <c r="J59" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -3375,10 +3375,10 @@
         <v>180</v>
       </c>
       <c r="J60" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -3407,10 +3407,10 @@
         <v>183</v>
       </c>
       <c r="J61" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3439,10 +3439,10 @@
         <v>186</v>
       </c>
       <c r="J62" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -3471,10 +3471,10 @@
         <v>189</v>
       </c>
       <c r="J63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -3503,10 +3503,10 @@
         <v>192</v>
       </c>
       <c r="J64" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -3535,10 +3535,10 @@
         <v>195</v>
       </c>
       <c r="J65" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -3567,10 +3567,10 @@
         <v>198</v>
       </c>
       <c r="J66" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -3625,10 +3625,10 @@
         <v>204</v>
       </c>
       <c r="J68" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -3657,10 +3657,10 @@
         <v>207</v>
       </c>
       <c r="J69" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -3689,10 +3689,10 @@
         <v>210</v>
       </c>
       <c r="J70" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -3721,10 +3721,10 @@
         <v>213</v>
       </c>
       <c r="J71" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -3753,10 +3753,10 @@
         <v>216</v>
       </c>
       <c r="J72" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -3785,10 +3785,10 @@
         <v>219</v>
       </c>
       <c r="J73" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -3817,10 +3817,10 @@
         <v>50</v>
       </c>
       <c r="J74" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -3875,10 +3875,10 @@
         <v>227</v>
       </c>
       <c r="J76" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>228</v>
       </c>
@@ -3907,10 +3907,10 @@
         <v>230</v>
       </c>
       <c r="J77" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>231</v>
       </c>
@@ -3939,10 +3939,10 @@
         <v>50</v>
       </c>
       <c r="J78" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>233</v>
       </c>
@@ -3965,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -3997,10 +3997,10 @@
         <v>238</v>
       </c>
       <c r="J80" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -4029,10 +4029,10 @@
         <v>241</v>
       </c>
       <c r="J81" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -4061,10 +4061,10 @@
         <v>244</v>
       </c>
       <c r="J82" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -4093,10 +4093,10 @@
         <v>247</v>
       </c>
       <c r="J83" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -4125,10 +4125,10 @@
         <v>50</v>
       </c>
       <c r="J84" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>250</v>
       </c>
@@ -4151,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>253</v>
       </c>
@@ -4183,10 +4183,10 @@
         <v>255</v>
       </c>
       <c r="J86" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>256</v>
       </c>
@@ -4215,10 +4215,10 @@
         <v>258</v>
       </c>
       <c r="J87" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>259</v>
       </c>
@@ -4247,10 +4247,10 @@
         <v>261</v>
       </c>
       <c r="J88" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -4279,10 +4279,10 @@
         <v>264</v>
       </c>
       <c r="J89" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>265</v>
       </c>
@@ -4311,10 +4311,10 @@
         <v>267</v>
       </c>
       <c r="J90" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>268</v>
       </c>
@@ -4343,10 +4343,10 @@
         <v>270</v>
       </c>
       <c r="J91" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>271</v>
       </c>
@@ -4369,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>274</v>
       </c>
@@ -4401,10 +4401,10 @@
         <v>276</v>
       </c>
       <c r="J93" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>277</v>
       </c>
@@ -4433,10 +4433,10 @@
         <v>279</v>
       </c>
       <c r="J94" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>280</v>
       </c>
@@ -4465,10 +4465,10 @@
         <v>282</v>
       </c>
       <c r="J95" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>283</v>
       </c>
@@ -4497,10 +4497,10 @@
         <v>50</v>
       </c>
       <c r="J96" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -4529,10 +4529,10 @@
         <v>50</v>
       </c>
       <c r="J97" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>287</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>290</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>293</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>296</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>299</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>302</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>305</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>308</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>310</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>312</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>314</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>316</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>319</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>322</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>328</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>331</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>334</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>337</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>340</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>342</v>
       </c>
@@ -5171,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -5203,10 +5203,10 @@
         <v>347</v>
       </c>
       <c r="J119" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>348</v>
       </c>
@@ -5235,10 +5235,10 @@
         <v>350</v>
       </c>
       <c r="J120" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -5267,10 +5267,10 @@
         <v>353</v>
       </c>
       <c r="J121" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>354</v>
       </c>
@@ -5299,10 +5299,10 @@
         <v>356</v>
       </c>
       <c r="J122" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>357</v>
       </c>
@@ -5331,10 +5331,10 @@
         <v>359</v>
       </c>
       <c r="J123" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>360</v>
       </c>
@@ -5363,10 +5363,10 @@
         <v>362</v>
       </c>
       <c r="J124" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>363</v>
       </c>
@@ -5395,10 +5395,10 @@
         <v>365</v>
       </c>
       <c r="J125" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>366</v>
       </c>
@@ -5427,10 +5427,10 @@
         <v>50</v>
       </c>
       <c r="J126" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>368</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>371</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>374</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>377</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>380</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>383</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>385</v>
       </c>
@@ -5645,12 +5645,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B134" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C134">
         <v>1</v>

--- a/data/cc_inventory_sectors.xlsx
+++ b/data/cc_inventory_sectors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="400">
   <si>
     <t>sector</t>
   </si>
@@ -1210,6 +1210,15 @@
   </si>
   <si>
     <t>Energy | Fuel production</t>
+  </si>
+  <si>
+    <t>4.X.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.X. Other (N from unspecified managed soils)</t>
+  </si>
+  <si>
+    <t>Other (N from unspecified managed soils)</t>
   </si>
 </sst>
 </file>
@@ -1550,13 +1559,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5431,55 +5440,55 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
+        <v>398</v>
+      </c>
+      <c r="B127" t="s">
+        <v>397</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>399</v>
+      </c>
+      <c r="E127" t="s">
+        <v>344</v>
+      </c>
+      <c r="F127" t="s">
+        <v>399</v>
+      </c>
+      <c r="G127" t="s">
+        <v>399</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>399</v>
+      </c>
+      <c r="J127" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>369</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
         <v>370</v>
-      </c>
-      <c r="E127" t="s">
-        <v>370</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>371</v>
-      </c>
-      <c r="B128" t="s">
-        <v>372</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s">
-        <v>373</v>
       </c>
       <c r="E128" t="s">
         <v>370</v>
       </c>
-      <c r="F128" t="s">
-        <v>373</v>
-      </c>
-      <c r="G128" t="s">
-        <v>373</v>
-      </c>
       <c r="H128" t="b">
-        <v>1</v>
-      </c>
-      <c r="I128" t="s">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>370</v>
@@ -5487,31 +5496,31 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E129" t="s">
         <v>370</v>
       </c>
       <c r="F129" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G129" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J129" t="s">
         <v>370</v>
@@ -5519,31 +5528,31 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B130" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E130" t="s">
         <v>370</v>
       </c>
       <c r="F130" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G130" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J130" t="s">
         <v>370</v>
@@ -5551,31 +5560,31 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B131" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E131" t="s">
         <v>370</v>
       </c>
       <c r="F131" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G131" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J131" t="s">
         <v>370</v>
@@ -5583,31 +5592,31 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B132" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>50</v>
+        <v>382</v>
       </c>
       <c r="E132" t="s">
         <v>370</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>382</v>
       </c>
       <c r="G132" t="s">
-        <v>50</v>
+        <v>382</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>50</v>
+        <v>382</v>
       </c>
       <c r="J132" t="s">
         <v>370</v>
@@ -5615,31 +5624,31 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B133" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="E133" t="s">
         <v>370</v>
       </c>
       <c r="F133" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="J133" t="s">
         <v>370</v>
@@ -5647,33 +5656,65 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>385</v>
+      </c>
+      <c r="B134" t="s">
+        <v>386</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>124</v>
+      </c>
+      <c r="E134" t="s">
+        <v>370</v>
+      </c>
+      <c r="F134" t="s">
+        <v>124</v>
+      </c>
+      <c r="G134" t="s">
+        <v>124</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="s">
+        <v>124</v>
+      </c>
+      <c r="J134" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>390</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>391</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
         <v>50</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>50</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>50</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G135" t="s">
         <v>50</v>
       </c>
-      <c r="H134" t="b">
-        <v>1</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
         <v>50</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J135" t="s">
         <v>370</v>
       </c>
     </row>

--- a/data/cc_inventory_sectors.xlsx
+++ b/data/cc_inventory_sectors.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="sectors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="401">
   <si>
     <t>sector</t>
   </si>
@@ -1188,9 +1188,6 @@
     <t>Industrial processes</t>
   </si>
   <si>
-    <t>Land use change</t>
-  </si>
-  <si>
     <t>6. Other</t>
   </si>
   <si>
@@ -1219,6 +1216,12 @@
   </si>
   <si>
     <t>Other (N from unspecified managed soils)</t>
+  </si>
+  <si>
+    <t>Land use change (LULUCF)</t>
+  </si>
+  <si>
+    <t>sector_tidy_order</t>
   </si>
 </sst>
 </file>
@@ -1559,13 +1562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="K129" sqref="K129:K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1584,7 @@
     <col min="9" max="9" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,8 +1615,11 @@
       <c r="J1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1682,10 +1688,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1714,10 +1723,13 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1746,10 +1758,13 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1778,10 +1793,13 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1807,10 +1825,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1839,10 +1860,13 @@
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1871,10 +1895,13 @@
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1903,10 +1930,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1935,10 +1965,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1967,10 +2000,13 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1999,10 +2035,13 @@
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2031,10 +2070,13 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -2060,10 +2102,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2092,10 +2137,13 @@
         <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2124,10 +2172,13 @@
         <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2156,10 +2207,13 @@
         <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2188,10 +2242,13 @@
         <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2220,10 +2277,13 @@
         <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2249,10 +2309,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2281,10 +2344,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2313,10 +2379,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2345,10 +2414,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2377,10 +2449,13 @@
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -2403,10 +2478,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -2432,10 +2510,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -2464,10 +2545,13 @@
         <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2496,10 +2580,13 @@
         <v>94</v>
       </c>
       <c r="J30" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2528,10 +2615,13 @@
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -2557,10 +2647,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2589,10 +2682,13 @@
         <v>102</v>
       </c>
       <c r="J33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2621,10 +2717,13 @@
         <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -2653,10 +2752,13 @@
         <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2685,10 +2787,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -2711,10 +2816,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -2743,10 +2851,13 @@
         <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -2775,10 +2886,13 @@
         <v>119</v>
       </c>
       <c r="J39" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -2807,10 +2921,13 @@
         <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -2833,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -2859,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -2888,7 +3005,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -2917,7 +3034,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2946,7 +3063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2975,7 +3092,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -3001,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -3030,7 +3147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -3059,7 +3176,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -3079,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -3104,8 +3221,11 @@
       <c r="J51" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -3136,8 +3256,11 @@
       <c r="J52" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -3168,8 +3291,11 @@
       <c r="J53" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -3200,8 +3326,11 @@
       <c r="J54" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -3232,8 +3361,11 @@
       <c r="J55" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -3258,8 +3390,11 @@
       <c r="J56" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -3290,8 +3425,11 @@
       <c r="J57" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -3322,8 +3460,11 @@
       <c r="J58" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -3354,8 +3495,11 @@
       <c r="J59" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -3386,8 +3530,11 @@
       <c r="J60" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -3418,8 +3565,11 @@
       <c r="J61" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -3450,8 +3600,11 @@
       <c r="J62" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -3482,8 +3635,11 @@
       <c r="J63" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -3514,8 +3670,11 @@
       <c r="J64" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -3546,8 +3705,11 @@
       <c r="J65" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -3578,8 +3740,11 @@
       <c r="J66" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
@@ -3604,8 +3769,11 @@
       <c r="J67" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -3636,8 +3804,11 @@
       <c r="J68" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -3668,8 +3839,11 @@
       <c r="J69" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -3700,8 +3874,11 @@
       <c r="J70" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -3732,8 +3909,11 @@
       <c r="J71" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -3764,8 +3944,11 @@
       <c r="J72" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -3796,8 +3979,11 @@
       <c r="J73" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -3828,8 +4014,11 @@
       <c r="J74" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
@@ -3854,8 +4043,11 @@
       <c r="J75" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -3886,8 +4078,11 @@
       <c r="J76" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>228</v>
       </c>
@@ -3918,8 +4113,11 @@
       <c r="J77" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>231</v>
       </c>
@@ -3950,8 +4148,11 @@
       <c r="J78" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>233</v>
       </c>
@@ -3976,8 +4177,11 @@
       <c r="J79" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -4008,8 +4212,11 @@
       <c r="J80" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -4040,8 +4247,11 @@
       <c r="J81" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -4072,8 +4282,11 @@
       <c r="J82" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -4104,8 +4317,11 @@
       <c r="J83" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -4136,8 +4352,11 @@
       <c r="J84" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>250</v>
       </c>
@@ -4162,8 +4381,11 @@
       <c r="J85" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>253</v>
       </c>
@@ -4194,8 +4416,11 @@
       <c r="J86" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>256</v>
       </c>
@@ -4226,8 +4451,11 @@
       <c r="J87" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>259</v>
       </c>
@@ -4258,8 +4486,11 @@
       <c r="J88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -4290,8 +4521,11 @@
       <c r="J89" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>265</v>
       </c>
@@ -4322,8 +4556,11 @@
       <c r="J90" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>268</v>
       </c>
@@ -4354,8 +4591,11 @@
       <c r="J91" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>271</v>
       </c>
@@ -4380,8 +4620,11 @@
       <c r="J92" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>274</v>
       </c>
@@ -4412,8 +4655,11 @@
       <c r="J93" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>277</v>
       </c>
@@ -4444,8 +4690,11 @@
       <c r="J94" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>280</v>
       </c>
@@ -4476,8 +4725,11 @@
       <c r="J95" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>283</v>
       </c>
@@ -4508,8 +4760,11 @@
       <c r="J96" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -4540,8 +4795,11 @@
       <c r="J97" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>287</v>
       </c>
@@ -4563,8 +4821,11 @@
       <c r="J98" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>290</v>
       </c>
@@ -4589,8 +4850,11 @@
       <c r="J99" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>293</v>
       </c>
@@ -4621,8 +4885,11 @@
       <c r="J100" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>296</v>
       </c>
@@ -4653,8 +4920,11 @@
       <c r="J101" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>299</v>
       </c>
@@ -4685,8 +4955,11 @@
       <c r="J102" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>302</v>
       </c>
@@ -4717,8 +4990,11 @@
       <c r="J103" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>305</v>
       </c>
@@ -4743,8 +5019,11 @@
       <c r="J104" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>308</v>
       </c>
@@ -4775,8 +5054,11 @@
       <c r="J105" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>310</v>
       </c>
@@ -4807,8 +5089,11 @@
       <c r="J106" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>312</v>
       </c>
@@ -4839,8 +5124,11 @@
       <c r="J107" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>314</v>
       </c>
@@ -4871,8 +5159,11 @@
       <c r="J108" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>316</v>
       </c>
@@ -4903,8 +5194,11 @@
       <c r="J109" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>319</v>
       </c>
@@ -4935,8 +5229,11 @@
       <c r="J110" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>322</v>
       </c>
@@ -4967,8 +5264,11 @@
       <c r="J111" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -4999,8 +5299,11 @@
       <c r="J112" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>328</v>
       </c>
@@ -5031,8 +5334,11 @@
       <c r="J113" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>331</v>
       </c>
@@ -5063,8 +5369,11 @@
       <c r="J114" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>334</v>
       </c>
@@ -5095,8 +5404,11 @@
       <c r="J115" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>337</v>
       </c>
@@ -5127,8 +5439,11 @@
       <c r="J116" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>340</v>
       </c>
@@ -5159,8 +5474,11 @@
       <c r="J117" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>342</v>
       </c>
@@ -5180,10 +5498,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -5212,10 +5533,13 @@
         <v>347</v>
       </c>
       <c r="J119" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>348</v>
       </c>
@@ -5244,10 +5568,13 @@
         <v>350</v>
       </c>
       <c r="J120" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -5276,10 +5603,13 @@
         <v>353</v>
       </c>
       <c r="J121" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>354</v>
       </c>
@@ -5308,10 +5638,13 @@
         <v>356</v>
       </c>
       <c r="J122" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>357</v>
       </c>
@@ -5340,10 +5673,13 @@
         <v>359</v>
       </c>
       <c r="J123" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>360</v>
       </c>
@@ -5372,10 +5708,13 @@
         <v>362</v>
       </c>
       <c r="J124" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>363</v>
       </c>
@@ -5404,10 +5743,13 @@
         <v>365</v>
       </c>
       <c r="J125" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>366</v>
       </c>
@@ -5436,42 +5778,48 @@
         <v>50</v>
       </c>
       <c r="J126" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B127" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E127" t="s">
         <v>344</v>
       </c>
       <c r="F127" t="s">
+        <v>398</v>
+      </c>
+      <c r="G127" t="s">
+        <v>398</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>398</v>
+      </c>
+      <c r="J127" t="s">
         <v>399</v>
       </c>
-      <c r="G127" t="s">
-        <v>399</v>
-      </c>
-      <c r="H127" t="b">
-        <v>1</v>
-      </c>
-      <c r="I127" t="s">
-        <v>399</v>
-      </c>
-      <c r="J127" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>368</v>
       </c>
@@ -5493,8 +5841,11 @@
       <c r="J128" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>371</v>
       </c>
@@ -5525,8 +5876,11 @@
       <c r="J129" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>374</v>
       </c>
@@ -5557,8 +5911,11 @@
       <c r="J130" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>377</v>
       </c>
@@ -5589,8 +5946,11 @@
       <c r="J131" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>380</v>
       </c>
@@ -5621,8 +5981,11 @@
       <c r="J132" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>383</v>
       </c>
@@ -5653,8 +6016,11 @@
       <c r="J133" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>385</v>
       </c>
@@ -5685,13 +6051,16 @@
       <c r="J134" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>389</v>
+      </c>
+      <c r="B135" t="s">
         <v>390</v>
-      </c>
-      <c r="B135" t="s">
-        <v>391</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -5716,6 +6085,9 @@
       </c>
       <c r="J135" t="s">
         <v>370</v>
+      </c>
+      <c r="K135">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/cc_inventory_sectors.xlsx
+++ b/data/cc_inventory_sectors.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="sectors" sheetId="1" r:id="rId1"/>
+    <sheet name="summaries" sheetId="2" r:id="rId1"/>
+    <sheet name="full" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="420">
   <si>
     <t>sector</t>
   </si>
@@ -1222,6 +1223,63 @@
   </si>
   <si>
     <t>sector_tidy_order</t>
+  </si>
+  <si>
+    <t>included in data tab?</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.A. Fuel combustion</t>
+  </si>
+  <si>
+    <t>Fuel combustion</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>Other (Energy)</t>
+  </si>
+  <si>
+    <t>2. Industrial processes and product use</t>
+  </si>
+  <si>
+    <t>Industrial processes and product use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.E. Electronic industry</t>
+  </si>
+  <si>
+    <t>Electronic industry</t>
+  </si>
+  <si>
+    <t>Other (Industrial processes and product use)</t>
+  </si>
+  <si>
+    <t>Other (Agriculture)</t>
+  </si>
+  <si>
+    <t>4. Land use, land-use change and forestry</t>
+  </si>
+  <si>
+    <t>Land use, land-use change and forestry</t>
+  </si>
+  <si>
+    <t>Other (Land use, land-use change and forestry)</t>
+  </si>
+  <si>
+    <t>Other (Waste)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
   </si>
 </sst>
 </file>
@@ -1562,13 +1620,1228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="62.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" t="s">
+        <v>405</v>
+      </c>
+      <c r="H16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>405</v>
+      </c>
+      <c r="H17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" t="s">
+        <v>411</v>
+      </c>
+      <c r="G18" t="s">
+        <v>405</v>
+      </c>
+      <c r="H18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" t="s">
+        <v>405</v>
+      </c>
+      <c r="H19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" t="s">
+        <v>405</v>
+      </c>
+      <c r="H20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" t="s">
+        <v>405</v>
+      </c>
+      <c r="H21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" t="s">
+        <v>405</v>
+      </c>
+      <c r="H23" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
+        <v>405</v>
+      </c>
+      <c r="H24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" t="s">
+        <v>405</v>
+      </c>
+      <c r="H25" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" t="s">
+        <v>405</v>
+      </c>
+      <c r="H26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" t="s">
+        <v>327</v>
+      </c>
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" t="s">
+        <v>405</v>
+      </c>
+      <c r="H27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G28" t="s">
+        <v>405</v>
+      </c>
+      <c r="H28" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" t="s">
+        <v>405</v>
+      </c>
+      <c r="H29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" t="s">
+        <v>336</v>
+      </c>
+      <c r="G30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" t="s">
+        <v>339</v>
+      </c>
+      <c r="F31" t="s">
+        <v>339</v>
+      </c>
+      <c r="G31" t="s">
+        <v>405</v>
+      </c>
+      <c r="H31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" t="s">
+        <v>413</v>
+      </c>
+      <c r="F32" t="s">
+        <v>413</v>
+      </c>
+      <c r="G32" t="s">
+        <v>405</v>
+      </c>
+      <c r="H32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>415</v>
+      </c>
+      <c r="E34" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" t="s">
+        <v>347</v>
+      </c>
+      <c r="G34" t="s">
+        <v>405</v>
+      </c>
+      <c r="H34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>415</v>
+      </c>
+      <c r="E35" t="s">
+        <v>350</v>
+      </c>
+      <c r="F35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" t="s">
+        <v>405</v>
+      </c>
+      <c r="H35" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>415</v>
+      </c>
+      <c r="E36" t="s">
+        <v>353</v>
+      </c>
+      <c r="F36" t="s">
+        <v>353</v>
+      </c>
+      <c r="G36" t="s">
+        <v>405</v>
+      </c>
+      <c r="H36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" t="s">
+        <v>356</v>
+      </c>
+      <c r="F37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G37" t="s">
+        <v>405</v>
+      </c>
+      <c r="H37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" t="s">
+        <v>359</v>
+      </c>
+      <c r="G38" t="s">
+        <v>405</v>
+      </c>
+      <c r="H38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>415</v>
+      </c>
+      <c r="E39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" t="s">
+        <v>405</v>
+      </c>
+      <c r="H39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" t="s">
+        <v>363</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>415</v>
+      </c>
+      <c r="E40" t="s">
+        <v>365</v>
+      </c>
+      <c r="F40" t="s">
+        <v>365</v>
+      </c>
+      <c r="G40" t="s">
+        <v>405</v>
+      </c>
+      <c r="H40" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" t="s">
+        <v>366</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>415</v>
+      </c>
+      <c r="E41" t="s">
+        <v>416</v>
+      </c>
+      <c r="F41" t="s">
+        <v>416</v>
+      </c>
+      <c r="G41" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>415</v>
+      </c>
+      <c r="E42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G42" t="s">
+        <v>405</v>
+      </c>
+      <c r="H42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>370</v>
+      </c>
+      <c r="E44" t="s">
+        <v>373</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>405</v>
+      </c>
+      <c r="H44" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>370</v>
+      </c>
+      <c r="E45" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>405</v>
+      </c>
+      <c r="H45" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>370</v>
+      </c>
+      <c r="E46" t="s">
+        <v>379</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>405</v>
+      </c>
+      <c r="H46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>370</v>
+      </c>
+      <c r="E47" t="s">
+        <v>382</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>370</v>
+      </c>
+      <c r="E48" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>405</v>
+      </c>
+      <c r="H48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" t="s">
+        <v>419</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
+        <v>405</v>
+      </c>
+      <c r="H49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G102" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K129" sqref="K129:K135"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
